--- a/bodybuilding/bodybuilding.xlsx
+++ b/bodybuilding/bodybuilding.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guocongli/Desktop/personal/test1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guocongli/Desktop/personal/减肥/bodybuilding/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -76,6 +76,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>58kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>57.8kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1、跳绳(30m)
 2、蹬自行车(500下)
 3、深蹲(4组，每组8个)
@@ -84,7 +96,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>58kg</t>
+    <t>1、跳绳(30m)
+2、蹬自行车(500下)
+3、深蹲(4组，每组8个)
+4、仰卧起坐(20次)
+5、平板支撑(1m)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -172,9 +188,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -192,6 +205,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,7 +489,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,218 +498,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>43299</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2">
         <v>43299</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>43300</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2">
+        <v>43300</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>43300</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3">
-        <v>43300</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>43301</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2">
         <v>43301</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>43302</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2">
         <v>43302</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>43303</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2">
         <v>43303</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>43304</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5">
         <v>43304</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>43305</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5">
         <v>43305</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>43306</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5">
         <v>43306</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>43307</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5">
         <v>43307</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>43308</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5">
         <v>43308</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>43309</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5">
         <v>43309</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>43310</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5">
         <v>43310</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/bodybuilding/bodybuilding.xlsx
+++ b/bodybuilding/bodybuilding.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -96,11 +96,54 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1、跳绳(30m)
 2、蹬自行车(500下)
 3、深蹲(4组，每组8个)
 4、仰卧起坐(20次)
 5、平板支撑(1m)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>57.5kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、跳绳(30m)
+2、蹬自行车(600下)
+3、深蹲(4组，每组8个)
+4、仰卧起坐(30次)
+5、平板支撑(1m)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>58kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、跳绳(4000下)
+2、蹬自行车(600下)
+3、深蹲(6组，每组8个)
+4、仰卧起坐(30次)
+5、平板支撑(1m)</t>
+    <rPh sb="9" eb="10">
+      <t>xia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>57kg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +532,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,13 +614,13 @@
         <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43301</v>
       </c>
@@ -587,11 +630,17 @@
       <c r="E5" s="2">
         <v>43301</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43302</v>
       </c>
@@ -601,11 +650,17 @@
       <c r="E6" s="2">
         <v>43302</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43303</v>
       </c>
@@ -615,9 +670,15 @@
       <c r="E7" s="2">
         <v>43303</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">

--- a/bodybuilding/bodybuilding.xlsx
+++ b/bodybuilding/bodybuilding.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>57kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、跳绳(4000下)
+2、蹬自行车(600下)
+3、深蹲(6组，每组8个)
+4、仰卧起坐(40次)
+5、平板支撑(1m)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>57.1kg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -251,6 +263,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -680,7 +695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>43304</v>
       </c>
@@ -690,9 +705,15 @@
       <c r="E8" s="5">
         <v>43304</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">

--- a/bodybuilding/bodybuilding.xlsx
+++ b/bodybuilding/bodybuilding.xlsx
@@ -1,91 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guocongli/Desktop/personal/减肥/bodybuilding/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13780" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+  <si>
+    <t>Krystal</t>
+  </si>
+  <si>
+    <t>Cindy</t>
+  </si>
   <si>
     <t>时间</t>
-    <rPh sb="0" eb="1">
-      <t>shi jian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>时长</t>
-    <rPh sb="0" eb="1">
-      <t>shi chang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动项目</t>
   </si>
   <si>
     <t>体重</t>
-    <rPh sb="0" eb="1">
-      <t>ti zhong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cindy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Krystal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动项目</t>
-    <rPh sb="0" eb="1">
-      <t>yun dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiang mu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动项目</t>
-    <rPh sb="0" eb="1">
-      <t>yun dong xiang mu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1h</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>58kg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>57.8kg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1h</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1、跳绳(30m)
@@ -93,27 +42,15 @@
 3、深蹲(4组，每组8个)
 4、仰卧起坐(20次)
 5、平板支撑(1m)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1h</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、跳绳(30m)
-2、蹬自行车(500下)
-3、深蹲(4组，每组8个)
-4、仰卧起坐(20次)
-5、平板支撑(1m)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>58kg</t>
+  </si>
+  <si>
+    <t>57.8kg</t>
   </si>
   <si>
     <t>57.5kg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1h</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1、跳绳(30m)
@@ -121,15 +58,9 @@
 3、深蹲(4组，每组8个)
 4、仰卧起坐(30次)
 5、平板支撑(1m)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>58kg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2h</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1、跳绳(4000下)
@@ -137,14 +68,9 @@
 3、深蹲(6组，每组8个)
 4、仰卧起坐(30次)
 5、平板支撑(1m)</t>
-    <rPh sb="9" eb="10">
-      <t>xia</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>57kg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1、跳绳(4000下)
@@ -152,23 +78,26 @@
 3、深蹲(6组，每组8个)
 4、仰卧起坐(40次)
 5、平板支撑(1m)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>57.1kg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -176,19 +105,162 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,7 +275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,8 +285,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -237,15 +495,260 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -261,17 +764,61 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -324,7 +871,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -359,7 +906,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -533,278 +1080,275 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="7" max="7" width="37.1640625" customWidth="1"/>
+    <col min="7" max="7" width="37.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="78.75" spans="1:8">
+      <c r="A3" s="3">
+        <v>43299</v>
+      </c>
+      <c r="B3" s="4">
+        <v>111111</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3">
+        <v>43299</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>43299</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2">
-        <v>43299</v>
-      </c>
-      <c r="F3" s="3" t="s">
+    <row r="4" s="1" customFormat="1" ht="78.75" spans="1:8">
+      <c r="A4" s="3">
+        <v>43300</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3">
+        <v>43300</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="78.75" spans="1:8">
+      <c r="A5" s="3">
+        <v>43301</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3">
+        <v>43301</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="78.75" spans="1:8">
+      <c r="A6" s="3">
+        <v>43302</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3">
+        <v>43302</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>43300</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2">
-        <v>43300</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
+    <row r="7" s="1" customFormat="1" ht="78.75" spans="1:8">
+      <c r="A7" s="3">
+        <v>43303</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3">
+        <v>43303</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
+      <c r="H7" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>43301</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2">
-        <v>43301</v>
-      </c>
-      <c r="F5" s="3" t="s">
+    <row r="8" s="1" customFormat="1" ht="78.75" spans="1:8">
+      <c r="A8" s="6">
+        <v>43304</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6">
+        <v>43304</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>43302</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2">
-        <v>43302</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>17</v>
-      </c>
+    <row r="9" s="1" customFormat="1" spans="1:8">
+      <c r="A9" s="6">
+        <v>43305</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6">
+        <v>43305</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>43303</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2">
-        <v>43303</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>20</v>
-      </c>
+    <row r="10" s="1" customFormat="1" spans="1:8">
+      <c r="A10" s="6">
+        <v>43306</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6">
+        <v>43306</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>43304</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5">
-        <v>43304</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>22</v>
-      </c>
+    <row r="11" s="1" customFormat="1" spans="1:8">
+      <c r="A11" s="6">
+        <v>43307</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6">
+        <v>43307</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>43305</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5">
-        <v>43305</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+    <row r="12" s="1" customFormat="1" spans="1:8">
+      <c r="A12" s="6">
+        <v>43308</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6">
+        <v>43308</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>43306</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5">
-        <v>43306</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+    <row r="13" s="1" customFormat="1" spans="1:8">
+      <c r="A13" s="6">
+        <v>43309</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6">
+        <v>43309</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>43307</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5">
-        <v>43307</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>43308</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5">
-        <v>43308</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>43309</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5">
-        <v>43309</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="14" s="1" customFormat="1" spans="1:8">
+      <c r="A14" s="6">
         <v>43310</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6">
         <v>43310</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/bodybuilding/bodybuilding.xlsx
+++ b/bodybuilding/bodybuilding.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guocongli/Desktop/personal/减肥/bodybuilding/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12640" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>Krystal</t>
   </si>
@@ -96,13 +86,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -114,14 +109,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,7 +275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,8 +285,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -170,15 +495,260 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -197,14 +767,58 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -466,38 +1080,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="7" max="7" width="37.1640625" customWidth="1"/>
+    <col min="7" max="7" width="37.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -523,220 +1137,216 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" s="1" customFormat="1" ht="78.75" spans="1:8">
+      <c r="A3" s="3">
         <v>43299</v>
       </c>
-      <c r="B3" s="3">
-        <v>111111</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3">
         <v>43299</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" s="1" customFormat="1" ht="78.75" spans="1:8">
+      <c r="A4" s="3">
         <v>43300</v>
       </c>
-      <c r="B4" s="3">
-        <v>22222</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3">
         <v>43300</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" s="1" customFormat="1" ht="78.75" spans="1:8">
+      <c r="A5" s="3">
         <v>43301</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3">
         <v>43301</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" s="1" customFormat="1" ht="78.75" spans="1:8">
+      <c r="A6" s="3">
         <v>43302</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3">
         <v>43302</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" s="1" customFormat="1" ht="78.75" spans="1:8">
+      <c r="A7" s="3">
         <v>43303</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3">
         <v>43303</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="8" s="1" customFormat="1" ht="78.75" spans="1:8">
+      <c r="A8" s="6">
         <v>43304</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6">
         <v>43304</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" s="1" customFormat="1" spans="1:8">
+      <c r="A9" s="6">
         <v>43305</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6">
         <v>43305</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" s="1" customFormat="1" spans="1:8">
+      <c r="A10" s="6">
         <v>43306</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6">
         <v>43306</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+    <row r="11" s="1" customFormat="1" spans="1:8">
+      <c r="A11" s="6">
         <v>43307</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6">
         <v>43307</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+    <row r="12" s="1" customFormat="1" spans="1:8">
+      <c r="A12" s="6">
         <v>43308</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6">
         <v>43308</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="13" s="1" customFormat="1" spans="1:8">
+      <c r="A13" s="6">
         <v>43309</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6">
         <v>43309</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="14" s="1" customFormat="1" spans="1:8">
+      <c r="A14" s="6">
         <v>43310</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6">
         <v>43310</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/bodybuilding/bodybuilding.xlsx
+++ b/bodybuilding/bodybuilding.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Krystal</t>
   </si>
@@ -103,6 +103,10 @@
 3、深蹲(4组，每组8个)
 4、仰卧起坐(40次)
 5、平板支撑(40s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.3kg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +492,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,7 +676,9 @@
       <c r="G9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
